--- a/data/income_statement/2digits/size/86_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/86_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>86-Human health activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>86-Human health activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,275 +841,310 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>3656150.33587</v>
+        <v>3626502.40665</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>3716580.44369</v>
+        <v>3652514.33061</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>4165673.3149</v>
+        <v>4309224.577529999</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>4467585.37716</v>
+        <v>4563936.827930001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>4642086.87707</v>
+        <v>4653107.65067</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>5099948.832909999</v>
+        <v>5177004.545369999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5487648.17544</v>
+        <v>5482578.6362</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>6001567.923269999</v>
+        <v>6158224.8675</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>6271736.78371</v>
+        <v>6395531.04513</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>6508287.76656</v>
+        <v>6344829.444709999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>6799897.218330001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>6856533.549</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>7387443.621</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>3574394.73874</v>
+        <v>3548065.15971</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>3638591.69385</v>
+        <v>3579521.5733</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>4054012.17173</v>
+        <v>4185494.84651</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>4347992.82228</v>
+        <v>4443517.149359999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>4510019.878599999</v>
+        <v>4510791.34213</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4911207.54937</v>
+        <v>4971963.14667</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>5256575.985700001</v>
+        <v>5257104.074990001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>5741956.550770001</v>
+        <v>5898572.180639999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>5946144.68265</v>
+        <v>6084785.372239999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>6136368.595720001</v>
+        <v>6012461.74086</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>6367486.967110001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>6378218.680059999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>6966062.472</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>14206.61507</v>
+        <v>14608.92105</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>15659.06638</v>
+        <v>14494.23542</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>23742.96629</v>
+        <v>39984.40385</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>41142.7507</v>
+        <v>47815.2361</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>49261.08763</v>
+        <v>55287.68840000001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>105432.56351</v>
+        <v>107029.78715</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>121971.00024</v>
+        <v>122279.39892</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>105055.4475</v>
+        <v>113782.70734</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>154715.40702</v>
+        <v>154710.1995</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>204916.47097</v>
+        <v>180855.13748</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>240699.78315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>317624.89145</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>242392.959</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>67548.98206000001</v>
+        <v>63828.32589</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>62329.68345999999</v>
+        <v>58498.52189</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>87918.17688</v>
+        <v>83745.32717</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>78449.80418000001</v>
+        <v>72604.44246999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>82805.91084</v>
+        <v>87028.62014</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>83308.72003</v>
+        <v>98011.61155</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>109101.1895</v>
+        <v>103195.16229</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>154555.925</v>
+        <v>145869.97952</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>170876.69404</v>
+        <v>156035.47339</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>167002.69987</v>
+        <v>151512.56637</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>191710.46807</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>160689.97749</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>178988.19</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>51958.34714</v>
+        <v>53938.16843000001</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>41060.67071</v>
+        <v>40528.0814</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>40903.60758</v>
+        <v>43512.20433</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>50594.63148</v>
+        <v>51375.39859</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>32985.75221</v>
+        <v>35289.88679</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>37244.2088</v>
+        <v>37907.82914</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>33017.81335</v>
+        <v>38938.08771</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>36994.44416</v>
+        <v>38850.34016</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>43856.43637</v>
+        <v>43746.58565</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>41834.57588</v>
+        <v>41673.24351</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>45267.20859999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>44450.64046</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>65885.63800000001</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>36527.87779999999</v>
+        <v>38626.99965000001</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>29280.8143</v>
+        <v>29169.37558</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>24780.39883</v>
+        <v>25827.27793</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>30841.61512</v>
+        <v>31688.0208</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>16840.10257</v>
+        <v>19269.62085</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>19441.63459000001</v>
+        <v>20088.99637</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>20426.59178</v>
+        <v>26379.03371</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>24746.87036</v>
+        <v>26706.63048</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>34453.57714</v>
+        <v>35626.13267</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>34308.03767000001</v>
+        <v>34146.70529999999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>38813.16531</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>38004.15052</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>60410.05</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>10368.4255</v>
+        <v>10323.52245</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>9191.9948</v>
+        <v>8655.29702</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>12869.65675</v>
+        <v>14129.93544</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>14773.1741</v>
+        <v>14796.91371</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>10957.20151</v>
+        <v>10951.90525</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>15335.54986</v>
+        <v>15341.73418</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>9805.097330000002</v>
+        <v>9719.97363</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>8745.524059999998</v>
+        <v>8751.573299999998</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>6819.937440000001</v>
+        <v>5515.277</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>5991.77674</v>
@@ -1216,362 +1152,412 @@
       <c r="M11" s="48" t="n">
         <v>3001.37453</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>3724.719</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>5062.04384</v>
+        <v>4987.64633</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>2587.86161</v>
+        <v>2703.4088</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>3253.552</v>
+        <v>3554.99096</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>4979.842259999999</v>
+        <v>4890.46408</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>5188.44813</v>
+        <v>5068.36069</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>2467.02435</v>
+        <v>2477.09859</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>2786.12424</v>
+        <v>2839.08037</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>3502.04974</v>
+        <v>3392.13638</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>2582.92179</v>
+        <v>2605.17598</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>1534.76147</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>3452.66876</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>3445.11541</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1750.869</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>3604191.988729999</v>
+        <v>3572564.23822</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>3675519.77298</v>
+        <v>3611986.24921</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>4124769.70732</v>
+        <v>4265712.3732</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>4416990.74568</v>
+        <v>4512561.42934</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>4609101.12486</v>
+        <v>4617817.76388</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>5062704.624109999</v>
+        <v>5139096.716229999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5454630.36209</v>
+        <v>5443640.54849</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>5964573.47911</v>
+        <v>6119374.52734</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>6227880.34734</v>
+        <v>6351784.45948</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>6466453.19068</v>
+        <v>6303156.201200001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>6754630.009729999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>6812082.908540001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>7321557.983</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>2751225.11227</v>
+        <v>2759108.29523</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>2933205.4511</v>
+        <v>2919756.0085</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>3262073.54418</v>
+        <v>3418906.09429</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>3595128.263890001</v>
+        <v>3699602.49215</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3808873.06976</v>
+        <v>3824130.60588</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>4204988.63878</v>
+        <v>4267919.09244</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4480893.36092</v>
+        <v>4493639.859859999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>4996035.92272</v>
+        <v>5188435.016489999</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>5121205.17108</v>
+        <v>5297435.270819999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>5321008.99487</v>
+        <v>5257491.33643</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>5505091.210779999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5617934.21017</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>5920408.536</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>40300.63701000001</v>
+        <v>39326.99897</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>25705.60393</v>
+        <v>23726.05264</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>15604.18773</v>
+        <v>12349.57685</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>21769.83501</v>
+        <v>20999.82495</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>65654.58007</v>
+        <v>69906.60460000001</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>24913.47353</v>
+        <v>25124.61086</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>55744.18408</v>
+        <v>60440.53337</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>75382.98483</v>
+        <v>80832.50720000001</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>72752.23469</v>
+        <v>65793.43053</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>111660.11427</v>
+        <v>111631.88972</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>65267.20878</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>65965.64429000001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>94484.473</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>58525.56486</v>
+        <v>55721.93664</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>78446.50192</v>
+        <v>72289.51196999999</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>69158.73733</v>
+        <v>77856.01923000001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>70277.52178</v>
+        <v>74826.04075</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>77857.22688</v>
+        <v>81443.18898000001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>182341.94976</v>
+        <v>185101.69268</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>188830.91238</v>
+        <v>184940.70767</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>229762.50995</v>
+        <v>230001.37311</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>175362.98317</v>
+        <v>184790.67721</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>126838.857</v>
+        <v>120141.44185</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>277863.23859</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>252662.92498</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>284735.318</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>2641349.83234</v>
+        <v>2653100.61745</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>2825657.58138</v>
+        <v>2820099.21884</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>3168829.52968</v>
+        <v>3319928.76661</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>3492094.47465</v>
+        <v>3592958.3043</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>3659857.65969</v>
+        <v>3667570.25174</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>3994379.09513</v>
+        <v>4054529.26673</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>4228466.94102</v>
+        <v>4242461.85727</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>4673542.60468</v>
+        <v>4862067.31984</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>4862848.256450001</v>
+        <v>5037537.03118</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>5065280.93953</v>
+        <v>5008488.920790001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>5120535.22419</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>5257459.254989999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>5518386.868</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>11049.07806</v>
+        <v>10958.74217</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>3395.76387</v>
+        <v>3641.22505</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>8481.08944</v>
+        <v>8771.731599999999</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>10986.43245</v>
+        <v>10818.32215</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>5503.60312</v>
+        <v>5210.560560000001</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>3354.12036</v>
+        <v>3163.52217</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>7851.323439999999</v>
+        <v>5796.76155</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>17347.82326</v>
+        <v>15533.81634</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>10241.69677</v>
+        <v>9314.1319</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>17229.08407</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>41425.53922000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>41846.38591</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>22801.877</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>852966.8764600001</v>
+        <v>813455.94299</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>742314.3218799999</v>
+        <v>692230.24071</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>862696.16314</v>
+        <v>846806.27891</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>821862.4817900001</v>
+        <v>812958.9371900001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>800228.0551</v>
+        <v>793687.1580000001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>857715.9853299999</v>
+        <v>871177.62379</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>973737.0011700001</v>
+        <v>950000.6886299999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>968537.55639</v>
+        <v>930939.51085</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1106675.17626</v>
+        <v>1054349.18866</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1145444.19581</v>
+        <v>1045664.86477</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1249538.79895</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1194148.69837</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1401149.447</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>511411.14137</v>
+        <v>499066.95581</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>529413.7812999999</v>
+        <v>502680.05041</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>544217.61318</v>
+        <v>552460.6796499999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>568850.27599</v>
+        <v>575806.22489</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>562520.66575</v>
+        <v>557546.46577</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>648470.5766200002</v>
+        <v>669506.6738599999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>681730.23477</v>
+        <v>662239.8938399999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>757449.3121300001</v>
+        <v>745574.73705</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>839918.1662999999</v>
+        <v>814311.81351</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>901057.74298</v>
+        <v>862172.5296700001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>956654.5009600001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>939571.1555999999</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>983308.535</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>75.41932000000001</v>
@@ -1589,16 +1575,16 @@
         <v>577.8336699999999</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>52.6763</v>
+        <v>361.94381</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>82.22032</v>
+        <v>1187.24144</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>2566.91614</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>15122.59165</v>
+        <v>15073.98865</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>2088.58083</v>
@@ -1606,194 +1592,219 @@
       <c r="M21" s="48" t="n">
         <v>2433.28681</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>1280.093</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>45363.60667</v>
+        <v>49220.36476999999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>40965.26969</v>
+        <v>43710.41099</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>60254.01742999999</v>
+        <v>64320.94696000001</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>46844.07366</v>
+        <v>52598.652</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>52418.56096</v>
+        <v>55049.99909</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>65028.85196</v>
+        <v>70953.92054000001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>69598.78352000001</v>
+        <v>68073.13875</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>91294.05268000001</v>
+        <v>92884.79837</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>91729.55566</v>
+        <v>84451.62767</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>120742.31099</v>
+        <v>119206.80683</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>132758.33712</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>129271.27467</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>123546.167</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>465972.11538</v>
+        <v>449771.17172</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>488049.16756</v>
+        <v>458570.29537</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>483861.46272</v>
+        <v>488037.5996599999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>519402.9136</v>
+        <v>520604.28416</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>509524.27112</v>
+        <v>501918.63301</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>583389.04836</v>
+        <v>598190.8095099999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>612049.23093</v>
+        <v>592979.51365</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>663588.34331</v>
+        <v>650123.0225399999</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>733066.01899</v>
+        <v>714786.1971900001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>778226.85116</v>
+        <v>740877.14201</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>821462.87703</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>807866.59412</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>858482.275</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>341555.73509</v>
+        <v>314388.98718</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>212900.54058</v>
+        <v>189550.1903</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>318478.54996</v>
+        <v>294345.59926</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>253012.2058</v>
+        <v>237152.7123</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>237707.38935</v>
+        <v>236140.69223</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>209245.40871</v>
+        <v>201670.94993</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>292006.7664</v>
+        <v>287760.79479</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>211088.24426</v>
+        <v>185364.7738</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>266757.00996</v>
+        <v>240037.37515</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>244386.45283</v>
+        <v>183492.3351</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>292884.29799</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>254577.54277</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>417840.912</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>79679.10334</v>
+        <v>68544.94257</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>79242.12842000001</v>
+        <v>67611.1372</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>62490.20456000001</v>
+        <v>71996.07829999999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>96784.6718</v>
+        <v>86420.30014000001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>81456.69318999999</v>
+        <v>79123.8472</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>97874.14220999999</v>
+        <v>105949.02884</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>125810.1753</v>
+        <v>114053.64362</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>140679.37955</v>
+        <v>110481.81936</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>163440.43233</v>
+        <v>141700.89855</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>374742.58034</v>
+        <v>281335.50487</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>224157.78929</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>173945.86312</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>248817.171</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>535.21727</v>
+        <v>1455.43592</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>769.14989</v>
+        <v>833.51922</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>260.1956</v>
+        <v>517.7518699999999</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>268.77101</v>
+        <v>662.18061</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>1262.25797</v>
+        <v>603.3205400000001</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>92.08835999999999</v>
+        <v>119.10042</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>2792.08191</v>
+        <v>112.46755</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>4933.88042</v>
+        <v>1761.11319</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>4962.03287</v>
+        <v>5211.519300000001</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>2917.12831</v>
@@ -1801,254 +1812,289 @@
       <c r="M26" s="48" t="n">
         <v>1702.72086</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>2000.696</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>6079.900449999999</v>
+        <v>1777.26519</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>5268.65732</v>
+        <v>3385.04368</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>4596.01964</v>
+        <v>2974.22279</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>7591.402970000001</v>
+        <v>6634.701140000001</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>5784.348849999999</v>
+        <v>4711.98903</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>6157.39804</v>
+        <v>4674.64509</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>3489.08538</v>
+        <v>3356.60053</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>7585.651599999999</v>
+        <v>6606.34697</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>7665.5653</v>
+        <v>7594.60702</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>17405.1947</v>
+        <v>14123.9447</v>
       </c>
       <c r="M27" s="48" t="n">
         <v>8859.41617</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>5269.148</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>23615.24759</v>
+        <v>22000.83448</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>23911.12753</v>
+        <v>21041.47436</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>19834.21121</v>
+        <v>19194.11359</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>27696.84985</v>
+        <v>23407.45352</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>22098.98355</v>
+        <v>19884.29183</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>27066.94152</v>
+        <v>27699.09702</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>30999.5464</v>
+        <v>23645.21516</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>35720.04199000001</v>
+        <v>24100.91677</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>37104.97764</v>
+        <v>33676.2425</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>56472.99281</v>
+        <v>47343.94543</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>45379.32782999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>34830.25287999999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>38108.361</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>385.53558</v>
+        <v>268.9674</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>542.5307299999999</v>
+        <v>470.11629</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>542.62388</v>
+        <v>539.97117</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>493.7221</v>
+        <v>807.1198200000001</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>406.95957</v>
+        <v>856.51674</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>448.6465</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>607.4286099999999</v>
+        <v>519.7157900000001</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>823.9995700000001</v>
+        <v>805.09957</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>340.7696</v>
+        <v>524.63226</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>3336.16261</v>
+        <v>3166.86261</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>329.19614</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>194.751</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>162.55275</v>
+        <v>156.33275</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1490.97184</v>
+        <v>1534.07926</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>1087.96403</v>
+        <v>1085.66781</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>6381.49469</v>
+        <v>6380.34349</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>645.4396999999999</v>
+        <v>572.5258</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>4306.62696</v>
+        <v>4221.38316</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>4080.39219</v>
+        <v>4022.65441</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>494.17785</v>
+        <v>489.51595</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>2028.74766</v>
+        <v>2034.42967</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>4960.68841</v>
+        <v>4960.46395</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1084.33121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>3506.32103</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>1431.188</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1341.02653</v>
+        <v>1742.53469</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1487.43958</v>
+        <v>1288.29349</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1342.7015</v>
+        <v>934.9546499999999</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>3783.39297</v>
+        <v>885.29521</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>3885.31615</v>
+        <v>699.90372</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1710.62774</v>
+        <v>779.4345999999999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>2212.50864</v>
+        <v>1073.56202</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>2925.06485</v>
+        <v>2359.30826</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>2944.21071</v>
+        <v>1458.61812</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>2490.20343</v>
+        <v>2039.29072</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>19095.22433</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>2348.60284</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>6357.601</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>31890.35618</v>
+        <v>31054.8984</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>26301.20963</v>
+        <v>26929.90552</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>18326.70386</v>
+        <v>29115.63466</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>22059.30734</v>
+        <v>27230.86325</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>18321.94068</v>
+        <v>25398.86788</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>23690.17967</v>
+        <v>40431.46096</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>48237.17918</v>
+        <v>51045.81308</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>46271.13723000001</v>
+        <v>44131.87115</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>64954.09144</v>
+        <v>53656.02028</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>239597.73639</v>
+        <v>164044.59963</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>93768.14579</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>72103.05836</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>136084.559</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>331.3802900000001</v>
+        <v>342.39682</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>28.69569</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>9.49708</v>
+        <v>10.00008</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>310.14427</v>
@@ -2074,17 +2120,22 @@
       <c r="M33" s="48" t="n">
         <v>12.99981</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>8.364000000000001</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>168.72357</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>648.8970400000001</v>
+        <v>384.72544</v>
       </c>
       <c r="E34" s="48" t="n">
         <v>0</v>
@@ -2105,7 +2156,7 @@
         <v>1005.91406</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>432.48683</v>
+        <v>431.29294</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>592.42542</v>
@@ -2113,257 +2164,292 @@
       <c r="M34" s="48" t="n">
         <v>942.37262</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>1286.85</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>15169.16313</v>
+        <v>9577.553350000002</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>18793.44917</v>
+        <v>11715.28425</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>16490.28776</v>
+        <v>17623.76168</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>27989.90831</v>
+        <v>19892.52054</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>28785.89683</v>
+        <v>26130.88177</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>34351.31804</v>
+        <v>27524.94571</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>32836.17268</v>
+        <v>29721.83477</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>40900.61106999999</v>
+        <v>29202.83253</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>43007.55028</v>
+        <v>37113.53646</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>46970.04826</v>
+        <v>42146.84409999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>52984.05452999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>49310.92241000001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>58075.653</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>52795.05447</v>
+        <v>50450.38967</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>47322.94811</v>
+        <v>44734.63221</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>63600.47721</v>
+        <v>84568.92431</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>38524.47790999999</v>
+        <v>43632.19169</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>54548.17474</v>
+        <v>55830.45508</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>44271.86457000001</v>
+        <v>53808.57428</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>87444.42813999999</v>
+        <v>71324.96287999999</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>122401.58206</v>
+        <v>76889.89822</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>140924.89187</v>
+        <v>119187.90204</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>312533.46468</v>
+        <v>194535.13633</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>116320.33303</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>87094.61916</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>90450.48</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1223.70001</v>
+        <v>1280.74575</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1599.96976</v>
+        <v>1296.91895</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>2178.62045</v>
+        <v>2232.07557</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1706.14996</v>
+        <v>1521.63234</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1210.11302</v>
+        <v>2496.38249</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>944.7396</v>
+        <v>982.9298299999999</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1488.49067</v>
+        <v>1143.80574</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>2749.98299</v>
+        <v>1597.79531</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>2452.5598</v>
+        <v>2496.56779</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>2603.9616</v>
+        <v>2506.77863</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>2999.08425</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>2865.28054</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>3788.461</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>8789.85009</v>
+        <v>8627.863660000001</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>8215.30645</v>
+        <v>8030.59291</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>5898.335420000001</v>
+        <v>5940.98882</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>11756.94928</v>
+        <v>15436.84634</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>5501.151959999999</v>
+        <v>5547.55581</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>5089.67883</v>
+        <v>2977.14834</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>4809.30586</v>
+        <v>3091.8695</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>4184.88225</v>
+        <v>3730.26781</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>18896.82742</v>
+        <v>18100.32538</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>8886.62069</v>
+        <v>8849.4264</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>8875.18273</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>9069.857179999999</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>2983.139</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>206.61868</v>
+        <v>206.29519</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>62.34339</v>
+        <v>61.87884</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>110.75381</v>
+        <v>110.51964</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>158.24042</v>
+        <v>146.66153</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>856.68948</v>
+        <v>448.65497</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>487.72104</v>
+        <v>23.6574</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>243.92327</v>
+        <v>13.51851</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>1032.57237</v>
+        <v>870.3538599999999</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>12892.9198</v>
+        <v>12528.4528</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>1015.40925</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>1131.55846</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>10.42846</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>298.74</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>36082.06534</v>
+        <v>34391.75353</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>24978.20751</v>
+        <v>24614.78869</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>48937.14597999999</v>
+        <v>70064.81487999999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>18063.86564</v>
+        <v>20873.53103</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>37179.14874</v>
+        <v>37379.17856</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>25494.11177</v>
+        <v>37584.06144</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>67071.24454</v>
+        <v>53672.47504</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>89951.54409000001</v>
+        <v>56951.85775</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>90488.41129</v>
+        <v>64926.44246</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>289706.46109</v>
+        <v>172196.03386</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>92487.22981999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>65601.51473000001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>77033.565</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>29.95722</v>
+        <v>27.29731</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>11.00308</v>
+        <v>7.88522</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>5.23743</v>
+        <v>8.034429999999999</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>11.71717</v>
+        <v>9.594100000000001</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>7.71271</v>
@@ -2386,14 +2472,19 @@
       <c r="M41" s="48" t="n">
         <v>1.34662</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>70.801</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>57.34493999999999</v>
+        <v>57.09987</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>2.30972</v>
@@ -2402,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>9.77881</v>
+        <v>9.778810000000002</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>42.27886</v>
+        <v>42.27878</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>19.42379</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0.40443</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0.755</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>6405.51819</v>
+        <v>5859.33436</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>12453.8082</v>
+        <v>10720.25788</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>6470.38412</v>
+        <v>6212.49097</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>6817.77663</v>
+        <v>5634.14754</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>9751.079969999999</v>
+        <v>9908.69176</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>12235.06218</v>
+        <v>12220.22612</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>13676.31432</v>
+        <v>13248.14461</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>24367.48149</v>
+        <v>13624.50462</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>16193.80809</v>
+        <v>21135.74814</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>10318.85706</v>
+        <v>9965.333199999999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>10825.52672</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>9545.787199999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>6275.019</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>127916.46745</v>
+        <v>125795.96849</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>120839.96755</v>
+        <v>121722.74026</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>133905.2432</v>
+        <v>156746.68868</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>143283.29938</v>
+        <v>145140.54037</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>145075.45123</v>
+        <v>153992.81516</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>179050.19793</v>
+        <v>195593.75725</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>190937.54274</v>
+        <v>174961.70181</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>214062.02495</v>
+        <v>232025.30241</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>239571.78866</v>
+        <v>263413.77164</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>382793.5315599999</v>
+        <v>325503.07314</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>288866.9648</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>256068.98565</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>262221.804</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>108786.61656</v>
+        <v>108101.06556</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>105520.25994</v>
+        <v>107356.79132</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>119485.42632</v>
+        <v>139789.60429</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>133522.12694</v>
+        <v>135931.77278</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>135848.44786</v>
+        <v>146140.6438</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>168010.45377</v>
+        <v>185471.63336</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>171357.17657</v>
+        <v>157971.38896</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>200344.87496</v>
+        <v>200746.89053</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>223518.72793</v>
+        <v>244019.7139</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>320017.09661</v>
+        <v>266523.3803</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>261800.40998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>229002.43083</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>246217.713</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>19129.85089</v>
+        <v>17694.90293</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>15319.70761</v>
+        <v>14365.94894</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>14419.81688</v>
+        <v>16957.08439</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>9761.17244</v>
+        <v>9208.767589999999</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>9227.003369999999</v>
+        <v>7852.171359999999</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>11039.74416</v>
+        <v>10122.12389</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>19580.36617</v>
+        <v>16990.31285</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>13717.14999</v>
+        <v>31278.41188</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>16053.06073</v>
+        <v>19394.05774</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>62776.43495</v>
+        <v>58979.69284</v>
       </c>
       <c r="M46" s="48" t="n">
         <v>27066.55482</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>16004.091</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>240523.31651</v>
+        <v>206687.57159</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>123979.75334</v>
+        <v>90703.95503</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>183463.03411</v>
+        <v>125026.06457</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>167989.10031</v>
+        <v>134800.28038</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>119540.45657</v>
+        <v>105441.26919</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>83797.48842000001</v>
+        <v>58217.64723999999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>139434.97082</v>
+        <v>155527.77372</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>15304.0168</v>
+        <v>-13068.60747</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>49700.76176</v>
+        <v>-863.3999800000041</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-76197.96307000001</v>
+        <v>-55210.36949999999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>111854.78945</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>85359.80108000002</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>313985.799</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>27793.91877</v>
+        <v>27908.22018</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>45319.49208</v>
+        <v>46078.29605</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>35772.28573</v>
+        <v>39862.79519</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>51933.45815999999</v>
+        <v>59898.76091</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>65107.42617</v>
+        <v>70476.57139</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>68777.57165000001</v>
+        <v>59195.95227</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>98734.99592</v>
+        <v>99235.42258000001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>78903.4798</v>
+        <v>139607.83824</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>90087.26637</v>
+        <v>106825.32032</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>220114.60999</v>
+        <v>93767.82557</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>253881.85245</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>218722.81583</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>106075.149</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>483.8303</v>
+        <v>287.21648</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>764.9909</v>
+        <v>754.93868</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>748.9779400000001</v>
+        <v>743.69349</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>1914.24928</v>
+        <v>1880.936</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>700.72564</v>
+        <v>676.32745</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>502.1747</v>
+        <v>484.04654</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1200.44793</v>
+        <v>1134.56425</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>3136.20033</v>
+        <v>3140.18809</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>4438.94529</v>
+        <v>552.78255</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>3018.30522</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>13744.49186</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>11632.61624</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>731.1950000000001</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>27310.08847</v>
+        <v>27621.0037</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>44554.50117999999</v>
+        <v>45323.35737000001</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>35023.30779</v>
+        <v>39119.10170000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>50019.20888000001</v>
+        <v>58017.82491</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>64406.70053</v>
+        <v>69800.24394</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>68275.39695000001</v>
+        <v>58711.90573000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>97534.54798999999</v>
+        <v>98100.85833</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>75767.27946999999</v>
+        <v>136467.65015</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>85648.32108000001</v>
+        <v>106272.53777</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>217096.30477</v>
+        <v>90749.52034999999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>240137.36059</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>207090.19959</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>105343.954</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>53223.09843999999</v>
+        <v>40700.10502</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>61465.95561</v>
+        <v>57077.89221</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>529599.06823</v>
+        <v>503374.8510500001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>122220.5037</v>
+        <v>135008.54066</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>115215.54044</v>
+        <v>112862.04291</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>185383.98359</v>
+        <v>179754.58917</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>82688.56330999998</v>
+        <v>67832.89810999999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>370021.69134</v>
+        <v>273934.09909</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>103275.56529</v>
+        <v>91331.63009999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>198300.23584</v>
+        <v>179193.00763</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>163740.43148</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>150772.66672</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>83561.374</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>1748.73806</v>
+        <v>1566.20379</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>1747.57315</v>
+        <v>1278.85368</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>5930.339089999999</v>
+        <v>5024.550939999999</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>2746.71647</v>
+        <v>10120.505</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>4131.42859</v>
+        <v>3833.78162</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>6389.423809999999</v>
+        <v>3281.52873</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>8140.827660000001</v>
+        <v>559.70626</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>10113.18611</v>
+        <v>169.34333</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>4217.37879</v>
+        <v>2889.84671</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>1590.21705</v>
+        <v>764.28326</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>3519.04123</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1642.0597</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>5462.306</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>3131.51403</v>
+        <v>3110.64192</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>8324.06373</v>
+        <v>7945.97278</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>21191.98393</v>
+        <v>21126.32656</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>17355.02895</v>
+        <v>16946.39713</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>10837.11451</v>
+        <v>10811.06839</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2578.04896</v>
+        <v>2568.30602</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>3795.17239</v>
+        <v>3788.1033</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1666.94723</v>
+        <v>2520.96249</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>4922.31929</v>
+        <v>5002.205480000001</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>5904.119159999999</v>
+        <v>5792.01801</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>6728.846219999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>6619.51677</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>8700.387000000001</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>48342.84634999999</v>
+        <v>36023.25931</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>51394.31873</v>
+        <v>47853.06575</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>502476.74521</v>
+        <v>477223.97355</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>102118.75828</v>
+        <v>107941.63853</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>100246.99734</v>
+        <v>98217.19290000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>176416.51082</v>
+        <v>173904.75442</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>70752.56326000001</v>
+        <v>63485.08855</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>358241.558</v>
+        <v>271243.79327</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>94135.86721000001</v>
+        <v>83439.57790999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>190805.89963</v>
+        <v>172636.70636</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>153492.54403</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>142511.09025</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>69398.681</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>215094.13684</v>
+        <v>193895.68675</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>107833.28981</v>
+        <v>79704.35887000001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-310363.74839</v>
+        <v>-338485.99129</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>97702.05477000002</v>
+        <v>59690.50062999999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>69432.3423</v>
+        <v>63055.79767</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-32808.92351999999</v>
+        <v>-62340.98966000001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>155481.40343</v>
+        <v>186930.29819</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-275814.19474</v>
+        <v>-147394.86832</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>36512.46284</v>
+        <v>14630.29024</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-54383.58892</v>
+        <v>-140635.55156</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>201996.21042</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>153309.95019</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>336499.574</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>58223.03008999999</v>
+        <v>55502.61254</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>46667.06146</v>
+        <v>40921.55594</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>56363.7744</v>
+        <v>55017.43573</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>53856.40046</v>
+        <v>52031.73675</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>47981.21516</v>
+        <v>45359.46550999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>52253.19605999999</v>
+        <v>46770.28135</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>53492.12715</v>
+        <v>46247.36126000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>55213.12731999999</v>
+        <v>48621.35414</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>60930.85447999999</v>
+        <v>49749.94303</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>70401.86456</v>
+        <v>62700.80759</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>81188.30314</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>75273.02371000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>92670.799</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>156871.10675</v>
+        <v>138393.07421</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>61166.22835</v>
+        <v>38782.80293</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-366727.52279</v>
+        <v>-393503.42702</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>43845.65431000001</v>
+        <v>7658.763880000002</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>21451.12714</v>
+        <v>17696.33216</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-85062.11958000001</v>
+        <v>-109111.27101</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>101989.27628</v>
+        <v>140682.93693</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-331027.32206</v>
+        <v>-196016.22246</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-24418.39164</v>
+        <v>-35119.65279000001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-124785.45348</v>
+        <v>-203336.35915</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>120807.90728</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>78036.92648000001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>243828.775</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>549</v>
+        <v>475</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>614</v>
+        <v>492</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>603</v>
+        <v>521</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>633</v>
+        <v>553</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>593</v>
+        <v>526</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>629</v>
+        <v>550</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>655</v>
+        <v>544</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>662</v>
+        <v>557</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>702</v>
+        <v>570</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>577</v>
+        <v>533</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>532</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>